--- a/biology/Zoologie/Autour_de_Doria/Autour_de_Doria.xlsx
+++ b/biology/Zoologie/Autour_de_Doria/Autour_de_Doria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Megatriorchis doriae
 L’Autour de Doria (Megatriorchis doriae) est une espèce de rapaces de la famille des Accipitridae. C'est la seule espèce du genre Megatriorchis.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commémore le naturaliste italien Giacomo Doria (1840-1913).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut mesurer jusqu’à 69 cm de long, il est parmi les plus grands des autours au sens large. (Ce n’en est pas un vrai). Il est gris-brun avec le dessus et la couronne rayée de noir, le ventre est blanchâtre, il a une rayure noire derrière l’œil, iris brun sombre, un bec noir et les pattes jaune-verdâtre. Les sexes sont similaires. La femelle est légèrement plus grande que le mâle.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique aux forêts tropicales humides des basses terres de la Nouvelle-Guinée et de l'île Batanta au large de Nouvelle-Guinée occidentale.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son régime alimentaire se compose principalement d'oiseaux, dont le Paradisier petit-émeraude, et autres petits animaux.
 </t>
